--- a/R프로그래밍/res/sample1.xlsx
+++ b/R프로그래밍/res/sample1.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
